--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3749018.142425411</v>
+        <v>3744712.426049339</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7724746.986121998</v>
+        <v>7724746.986121997</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318.4831320324885</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.6064608052456</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>93.63007230513489</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>25.73468253713836</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>27.37301815328992</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>239.549007050476</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>252.9572482688802</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>35.46527312190281</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>199.9140262331193</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.84205284513764</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>63.841556412593</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>206.485192343033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>13.72582864853726</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.66101211579137</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576172</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>48.13676080754433</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>99.98993057842347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>74.75770077867777</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.8019480235372</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>81.88270281562022</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>173.5740289795526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>214.85520491952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.4725825998845</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.1727159660345</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.934501327943</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.934501327943</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>1130.934501327943</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1130.934501327943</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>719.9485965383353</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>301.9847884365222</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.934501327943</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.0166683735445</v>
+        <v>706.8975806003518</v>
       </c>
       <c r="C8" t="n">
-        <v>882.0166683735445</v>
+        <v>706.8975806003518</v>
       </c>
       <c r="D8" t="n">
-        <v>882.0166683735445</v>
+        <v>706.8975806003518</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>706.8975806003518</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>295.9116758107443</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374774</v>
       </c>
       <c r="K8" t="n">
-        <v>510.1161994204024</v>
+        <v>192.4307036906654</v>
       </c>
       <c r="L8" t="n">
-        <v>649.4448552616556</v>
+        <v>745.2439619368646</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920176</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.4306457471</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.594638687514</v>
+        <v>2209.871166171479</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.082266698746</v>
+        <v>1857.102510901365</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.616508437666</v>
+        <v>1483.636752640285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.616508437666</v>
+        <v>1093.497420664474</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
         <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>332.0575713317426</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.904546893894</v>
+        <v>972.6029207988472</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>872.2291984494694</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>703.2930155215626</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>553.1763761092268</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>405.2632825268337</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>258.3733350289233</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>89.76649002430668</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>721.4663421676781</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>721.4663421676781</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>721.4663421676781</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>721.4663421676781</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>432.0491721307175</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>1053.877663279709</v>
       </c>
     </row>
     <row r="11">
@@ -5023,34 +5023,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.1060525954244</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>107.6811364303327</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3052.75892420402</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3455.19996817779</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3234.40738903426</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.981709809277</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>2877.307316025036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3474.685803651587</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4102.283767206194</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3167.361685286662</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2998.425502358755</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2848.308862946419</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2700.395769364026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2553.505821866116</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2386.309722580996</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3388.154264430192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3167.361685286662</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3831.255992795844</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3603.266441897827</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3382.473862754297</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1024.063349920562</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C34" t="n">
-        <v>855.1271669926552</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
         <v>631.7012443408906</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.711814750802</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7025,19 +7025,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729772</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.39770338953</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3455.19996817779</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3260.450525729772</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314351</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7417,7 +7417,7 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305074</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407056</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>186.838549506777</v>
+        <v>35.04072454780332</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,22 +8537,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>74.01734528517892</v>
       </c>
       <c r="M9" t="n">
-        <v>277.2675446358076</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>473.6238973478235</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.533690297528686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>80.03780599355795</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>126.5688841976866</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>44.73700564187209</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>146.5858089828365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>92.15795203867955</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5330677581675</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>73.85777223953458</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.78270532855763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>112.9489693570384</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682744</v>
@@ -26435,28 +26435,28 @@
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682695</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682719</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>487208.1878446263</v>
       </c>
       <c r="D6" t="n">
-        <v>331404.3817508312</v>
+        <v>331404.381750831</v>
       </c>
       <c r="E6" t="n">
-        <v>-111063.4880658903</v>
+        <v>-111410.8673202472</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.8240605592</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.824060559</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.203314916</v>
+        <v>659641.824060559</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.2033149159</v>
+        <v>659641.8240605592</v>
       </c>
       <c r="J6" t="n">
-        <v>483565.9841223227</v>
+        <v>483218.6048679661</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.8240605593</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.8240605594</v>
       </c>
       <c r="M6" t="n">
-        <v>535780.6926068574</v>
+        <v>535433.3133525007</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.8240605592</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.203314916</v>
+        <v>659641.8240605589</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.2033149158</v>
+        <v>659641.8240605593</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.42478237957779e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.42478237957779e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.25070963099211</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>22.82750184132354</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>230.2927004592223</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.74372003767337</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>258.9088560886878</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>173.3678968954607</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>96.28372044853282</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>117.2468235473297</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>5.451855666999307</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>419.3361492447676</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>314.3020503687028</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772182</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>583.0802355498163</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33499,31 +33499,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>755.4040473746018</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L39" t="n">
-        <v>583.0802355498163</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34444,31 +34444,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>382.6869096644257</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>270.2356753396986</v>
+        <v>118.4378503807249</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>212.633100856587</v>
       </c>
       <c r="M9" t="n">
-        <v>458.5779853980346</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>281.4947102704086</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>171.7058059242583</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028592577</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>444.5258557699421</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>624.0623352912685</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L39" t="n">
-        <v>444.5258557699421</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37785,10 +37785,10 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37867,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>244.1325298845516</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3744712.426049339</v>
+        <v>3746472.956352125</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.283679164003906</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>118.8460297402135</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E4" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>124.5928256234903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.73468253713836</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>83.58354151325329</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.3592113335321</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>239.549007050476</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>44.88931475283864</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,13 +1308,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>35.46527312190281</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.841556412593</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>13.03790159951642</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576172</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2338.033285077397</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.567526816317</v>
+        <v>2522.073906861631</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326643</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781315</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>604.7036296850076</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>597.7581289358042</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>179.794320833991</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>179.794320833991</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2671.15446219283</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2671.15446219283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2671.15446219283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2671.15446219283</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2340.091574849259</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1987.322919579145</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.857161318065</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1223.717829342253</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>706.8975806003518</v>
+        <v>706.8975806003523</v>
       </c>
       <c r="C8" t="n">
-        <v>706.8975806003518</v>
+        <v>337.9350636599406</v>
       </c>
       <c r="D8" t="n">
-        <v>706.8975806003518</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="E8" t="n">
-        <v>706.8975806003518</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>295.9116758107443</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374774</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906654</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>745.2439619368646</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920176</v>
+        <v>1435.373231280527</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2062.680899340373</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.4306457471</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4840,13 +4840,13 @@
         <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.871166171479</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>1857.102510901365</v>
+        <v>1857.102510901366</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.636752640285</v>
+        <v>1483.636752640286</v>
       </c>
       <c r="Y8" t="n">
         <v>1093.497420664474</v>
@@ -4874,31 +4874,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>332.0575713317426</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988472</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>872.2291984494694</v>
+        <v>1008.534921105125</v>
       </c>
       <c r="C10" t="n">
-        <v>703.2930155215626</v>
+        <v>839.5987381772178</v>
       </c>
       <c r="D10" t="n">
-        <v>553.1763761092268</v>
+        <v>689.482098764882</v>
       </c>
       <c r="E10" t="n">
-        <v>405.2632825268337</v>
+        <v>541.5690051824889</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3733350289233</v>
+        <v>394.6790576845786</v>
       </c>
       <c r="G10" t="n">
-        <v>89.76649002430668</v>
+        <v>226.072212679962</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,16 +5129,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.2677182139842</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2382.47666296148</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2382.47666296148</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1873.799971328619</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V13" t="n">
-        <v>1619.115483122732</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1329.698313085771</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.708762187754</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.9161830442239</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5667,10 +5667,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5989,7 +5989,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,43 +6217,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6788,7 +6788,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2125.286319795768</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1870.601831589881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362678</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7715,19 +7715,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
         <v>577.3880777468471</v>
@@ -7736,13 +7736,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780332</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>219.4103185607342</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>74.01734528517892</v>
+        <v>128.0148769125374</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478235</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.533690297528686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
@@ -26331,10 +26331,10 @@
         <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
         <v>766789.269705506</v>
@@ -26346,16 +26346,16 @@
         <v>766789.2697055062</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682784</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682809</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682809</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682695</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682809</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.53656668278</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-102759.6913699183</v>
       </c>
       <c r="C6" t="n">
-        <v>487208.1878446263</v>
+        <v>487208.1878446264</v>
       </c>
       <c r="D6" t="n">
         <v>331404.381750831</v>
       </c>
       <c r="E6" t="n">
-        <v>-111410.8673202472</v>
+        <v>-111098.2259913263</v>
       </c>
       <c r="F6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="G6" t="n">
-        <v>659641.824060559</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="H6" t="n">
-        <v>659641.824060559</v>
+        <v>659954.4653894805</v>
       </c>
       <c r="I6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894806</v>
       </c>
       <c r="J6" t="n">
-        <v>483218.6048679661</v>
+        <v>483531.2461968873</v>
       </c>
       <c r="K6" t="n">
-        <v>659641.8240605593</v>
+        <v>659954.4653894805</v>
       </c>
       <c r="L6" t="n">
-        <v>659641.8240605594</v>
+        <v>659954.4653894807</v>
       </c>
       <c r="M6" t="n">
-        <v>535433.3133525007</v>
+        <v>535745.9546814219</v>
       </c>
       <c r="N6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894806</v>
       </c>
       <c r="O6" t="n">
-        <v>659641.8240605589</v>
+        <v>659954.4653894801</v>
       </c>
       <c r="P6" t="n">
-        <v>659641.8240605593</v>
+        <v>659954.4653894805</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.569994874432079e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.42478237957779e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26995,10 +26995,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.42478237957779e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.1947234108078</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>250.8850709382556</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E4" t="n">
-        <v>22.82750184132354</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>27.33849062137094</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.74372003767337</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>107.5829646831824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>135.0011118388415</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.32383028715088</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>173.3678968954607</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>134.9426654290987</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>117.2468235473297</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.769894134013742e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.846812854656239e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P15" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>441.0292693655512</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33508,10 +33508,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157699</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807249</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>407.9955840409439</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>212.633100856587</v>
+        <v>266.6306324839455</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P15" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937516</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
